--- a/diabetes/prevalence/Virginia.xlsx
+++ b/diabetes/prevalence/Virginia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cdc.gov\project\CCHP_NCCD_DDT_Data1\epistat\KAK\Single map county data by state\DMPREV2013\compliance\compliance2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosabreu/Desktop/analise_de_midias/diabetes/prevalence/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECFDC43-8C78-0646-8413-1434A0DF8BED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25200" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_Virginia" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,19 @@
   <definedNames>
     <definedName name="IDX" localSheetId="0">data_Virginia!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="289">
   <si>
     <t>Diagnosed Diabetes Prevalence</t>
   </si>
@@ -866,11 +874,35 @@
   <si>
     <t>York County</t>
   </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Número Total de casos</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Média (Lower)</t>
+  </si>
+  <si>
+    <t>Média(Upper</t>
+  </si>
+  <si>
+    <t>Numero de pessoas</t>
+  </si>
+  <si>
+    <t>Numero L</t>
+  </si>
+  <si>
+    <t>Numero H</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\_x0000_.0"/>
   </numFmts>
@@ -1581,7 +1613,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1634,6 +1666,9 @@
     <xf numFmtId="164" fontId="23" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1649,52 +1684,55 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperlink" xfId="42" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="43" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1971,189 +2009,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:BU138"/>
+  <dimension ref="A2:CD138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BR1" workbookViewId="0">
+      <selection activeCell="BW3" sqref="BW3:CD13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.1640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.1640625" style="1" customWidth="1"/>
     <col min="33" max="33" width="8" style="1" customWidth="1"/>
-    <col min="34" max="34" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.140625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1640625" style="1" customWidth="1"/>
     <col min="40" max="40" width="8" style="1" customWidth="1"/>
-    <col min="41" max="41" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.140625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.1640625" style="1" customWidth="1"/>
     <col min="47" max="47" width="8" style="1" customWidth="1"/>
-    <col min="48" max="48" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.140625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.1640625" style="1" customWidth="1"/>
     <col min="54" max="54" width="8" style="1" customWidth="1"/>
-    <col min="55" max="55" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.140625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.1640625" style="1" customWidth="1"/>
     <col min="61" max="61" width="8" style="1" customWidth="1"/>
-    <col min="62" max="62" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.140625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.1640625" style="1" customWidth="1"/>
     <col min="68" max="68" width="8" style="1" customWidth="1"/>
-    <col min="69" max="69" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.140625" style="1"/>
+    <col min="73" max="73" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:73" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:73" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+    <row r="2" spans="1:82" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:82" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="18">
+      <c r="D3" s="19">
         <v>2004</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="18">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="19">
         <v>2005</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18">
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="19">
         <v>2006</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="18">
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="19">
         <v>2007</v>
       </c>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="18">
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="19">
         <v>2008</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="18">
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="19">
         <v>2009</v>
       </c>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="18">
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="19">
         <v>2010</v>
       </c>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="18">
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="21"/>
+      <c r="BA3" s="19">
         <v>2011</v>
       </c>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="18">
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="21"/>
+      <c r="BH3" s="19">
         <v>2012</v>
       </c>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="20"/>
-      <c r="BO3" s="18">
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="21"/>
+      <c r="BO3" s="19">
         <v>2013</v>
       </c>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="19"/>
-      <c r="BT3" s="19"/>
-      <c r="BU3" s="22"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
+      <c r="BU3" s="23"/>
+      <c r="BW3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>288</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -2373,8 +2437,39 @@
       <c r="BU4" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="BW4" s="1">
+        <v>2004</v>
+      </c>
+      <c r="BX4" s="18">
+        <f>SUM(D5:D300)</f>
+        <v>422861</v>
+      </c>
+      <c r="BY4" s="18">
+        <f>AVERAGE(E5:E300)</f>
+        <v>8.5791044776119421</v>
+      </c>
+      <c r="BZ4" s="18">
+        <f>AVERAGE(F5:F300)</f>
+        <v>6.664925373134329</v>
+      </c>
+      <c r="CA4" s="18">
+        <f>AVERAGE(G5:G300)</f>
+        <v>10.921641791044777</v>
+      </c>
+      <c r="CB4" s="24">
+        <f>BX4*100/BY4</f>
+        <v>4928964.3354210146</v>
+      </c>
+      <c r="CC4" s="1">
+        <f>BZ4/100*CB4</f>
+        <v>328511.79462421703</v>
+      </c>
+      <c r="CD4" s="1">
+        <f>CA4/100*CB4</f>
+        <v>538323.82872303401</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -2594,8 +2689,39 @@
       <c r="BU5" s="11">
         <v>13.1</v>
       </c>
+      <c r="BW5" s="1">
+        <v>2005</v>
+      </c>
+      <c r="BX5" s="1">
+        <f>SUM(K5:K300)</f>
+        <v>441485</v>
+      </c>
+      <c r="BY5" s="18">
+        <f>AVERAGE(L5:L300)</f>
+        <v>8.9768656716417894</v>
+      </c>
+      <c r="BZ5" s="18">
+        <f>AVERAGE(M5:M300)</f>
+        <v>6.9126865671641786</v>
+      </c>
+      <c r="CA5" s="18">
+        <f>AVERAGE(N5:N300)</f>
+        <v>11.505970149253727</v>
+      </c>
+      <c r="CB5" s="24">
+        <f t="shared" ref="CB5:CB13" si="0">BX5*100/BY5</f>
+        <v>4918030.592734227</v>
+      </c>
+      <c r="CC5" s="1">
+        <f t="shared" ref="CC5:CC13" si="1">BZ5/100*CB5</f>
+        <v>339968.04015296372</v>
+      </c>
+      <c r="CD5" s="1">
+        <f t="shared" ref="CD5:CD13" si="2">CA5/100*CB5</f>
+        <v>565867.13193116628</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -2815,8 +2941,39 @@
       <c r="BU6" s="11">
         <v>8</v>
       </c>
+      <c r="BW6" s="1">
+        <v>2006</v>
+      </c>
+      <c r="BX6" s="18">
+        <f>SUM(R5:R300)</f>
+        <v>478802</v>
+      </c>
+      <c r="BY6" s="18">
+        <f>AVERAGE(S5:S300)</f>
+        <v>9.5858208955223887</v>
+      </c>
+      <c r="BZ6" s="18">
+        <f>AVERAGE(T5:T300)</f>
+        <v>7.3149253731343293</v>
+      </c>
+      <c r="CA6" s="18">
+        <f>AVERAGE(U5:U300)</f>
+        <v>12.388805970149249</v>
+      </c>
+      <c r="CB6" s="24">
+        <f t="shared" si="0"/>
+        <v>4994898.2483456591</v>
+      </c>
+      <c r="CC6" s="1">
+        <f t="shared" si="1"/>
+        <v>365373.07933047874</v>
+      </c>
+      <c r="CD6" s="1">
+        <f t="shared" si="2"/>
+        <v>618808.25239392731</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -3036,8 +3193,39 @@
       <c r="BU7" s="11">
         <v>8.6999999999999993</v>
       </c>
+      <c r="BW7" s="1">
+        <v>2007</v>
+      </c>
+      <c r="BX7" s="18">
+        <f>SUM(Y5:Y300)</f>
+        <v>522506.3</v>
+      </c>
+      <c r="BY7" s="18">
+        <f>AVERAGE(Z5:Z300)</f>
+        <v>10.205223880597012</v>
+      </c>
+      <c r="BZ7" s="18">
+        <f>AVERAGE(AA5:AA300)</f>
+        <v>7.8350746268656737</v>
+      </c>
+      <c r="CA7" s="18">
+        <f>AVERAGE(AB5:AB300)</f>
+        <v>13.080597014925369</v>
+      </c>
+      <c r="CB7" s="24">
+        <f t="shared" si="0"/>
+        <v>5119988.6069469852</v>
+      </c>
+      <c r="CC7" s="1">
+        <f t="shared" si="1"/>
+        <v>401154.92824131652</v>
+      </c>
+      <c r="CD7" s="1">
+        <f t="shared" si="2"/>
+        <v>669725.0768848263</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -3257,8 +3445,39 @@
       <c r="BU8" s="11">
         <v>10.8</v>
       </c>
+      <c r="BW8" s="1">
+        <v>2008</v>
+      </c>
+      <c r="BX8" s="1">
+        <f>SUM(AF5:AF300)</f>
+        <v>550961.49999999988</v>
+      </c>
+      <c r="BY8" s="18">
+        <f>AVERAGE(AG5:AG300)</f>
+        <v>10.702238805970158</v>
+      </c>
+      <c r="BZ8" s="18">
+        <f>AVERAGE(AH5:AH300)</f>
+        <v>8.2186567164179127</v>
+      </c>
+      <c r="CA8" s="18">
+        <f>AVERAGE(AI5:AI300)</f>
+        <v>13.710447761194031</v>
+      </c>
+      <c r="CB8" s="24">
+        <f t="shared" si="0"/>
+        <v>5148095.7394881751</v>
+      </c>
+      <c r="CC8" s="1">
+        <f t="shared" si="1"/>
+        <v>423104.31626106933</v>
+      </c>
+      <c r="CD8" s="1">
+        <f t="shared" si="2"/>
+        <v>705826.97705878178</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -3478,8 +3697,39 @@
       <c r="BU9" s="11">
         <v>13.4</v>
       </c>
+      <c r="BW9" s="1">
+        <v>2009</v>
+      </c>
+      <c r="BX9" s="18">
+        <f>SUM(AM5:AM300)</f>
+        <v>559531</v>
+      </c>
+      <c r="BY9" s="18">
+        <f>AVERAGE(AN5:AN300)</f>
+        <v>10.856716417910448</v>
+      </c>
+      <c r="BZ9" s="18">
+        <f>AVERAGE(AO5:AO300)</f>
+        <v>8.3514925373134297</v>
+      </c>
+      <c r="CA9" s="18">
+        <f>AVERAGE(AP5:AP300)</f>
+        <v>13.793283582089552</v>
+      </c>
+      <c r="CB9" s="24">
+        <f t="shared" si="0"/>
+        <v>5153777.4264503708</v>
+      </c>
+      <c r="CC9" s="1">
+        <f t="shared" si="1"/>
+        <v>430417.33715974679</v>
+      </c>
+      <c r="CD9" s="1">
+        <f t="shared" si="2"/>
+        <v>710875.13562001649</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -3699,8 +3949,39 @@
       <c r="BU10" s="11">
         <v>13.6</v>
       </c>
+      <c r="BW10" s="1">
+        <v>2010</v>
+      </c>
+      <c r="BX10" s="18">
+        <f>SUM(AT5:AT300)</f>
+        <v>576479</v>
+      </c>
+      <c r="BY10" s="18">
+        <f>AVERAGE(AU5:AU6300)</f>
+        <v>11.152238805970146</v>
+      </c>
+      <c r="BZ10" s="18">
+        <f>AVERAGE(AV5:AV6300)</f>
+        <v>8.5216417910447753</v>
+      </c>
+      <c r="CA10" s="18">
+        <f>AVERAGE(AW5:AW6300)</f>
+        <v>14.270895522388063</v>
+      </c>
+      <c r="CB10" s="24">
+        <f t="shared" si="0"/>
+        <v>5169177.3286937913</v>
+      </c>
+      <c r="CC10" s="1">
+        <f t="shared" si="1"/>
+        <v>440498.77549518202</v>
+      </c>
+      <c r="CD10" s="1">
+        <f t="shared" si="2"/>
+        <v>737687.89594486123</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -3920,8 +4201,39 @@
       <c r="BU11" s="11">
         <v>12.3</v>
       </c>
+      <c r="BW11" s="1">
+        <v>2011</v>
+      </c>
+      <c r="BX11" s="1">
+        <f>SUM(BA5:BA300)</f>
+        <v>587305</v>
+      </c>
+      <c r="BY11" s="18">
+        <f>AVERAGE(BB5:BB300)</f>
+        <v>11.341791044776118</v>
+      </c>
+      <c r="BZ11" s="18">
+        <f>AVERAGE(BC5:BC300)</f>
+        <v>8.6626865671641831</v>
+      </c>
+      <c r="CA11" s="18">
+        <f>AVERAGE(BD5:BD300)</f>
+        <v>14.561194029850746</v>
+      </c>
+      <c r="CB11" s="24">
+        <f t="shared" si="0"/>
+        <v>5178238.5840242142</v>
+      </c>
+      <c r="CC11" s="1">
+        <f t="shared" si="1"/>
+        <v>448574.57823397842</v>
+      </c>
+      <c r="CD11" s="1">
+        <f t="shared" si="2"/>
+        <v>754013.36754836165</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -4141,8 +4453,39 @@
       <c r="BU12" s="11">
         <v>6.3</v>
       </c>
+      <c r="BW12" s="1">
+        <v>2012</v>
+      </c>
+      <c r="BX12" s="18">
+        <f>SUM(BH5:BH300)</f>
+        <v>596540</v>
+      </c>
+      <c r="BY12" s="18">
+        <f>AVERAGE(BI5:BI300)</f>
+        <v>11.496268656716415</v>
+      </c>
+      <c r="BZ12" s="18">
+        <f>AVERAGE(BJ5:BJ300)</f>
+        <v>8.8186567164179142</v>
+      </c>
+      <c r="CA12" s="18">
+        <f>AVERAGE(BK5:BK300)</f>
+        <v>14.701492537313436</v>
+      </c>
+      <c r="CB12" s="24">
+        <f t="shared" si="0"/>
+        <v>5188987.9909120426</v>
+      </c>
+      <c r="CC12" s="1">
+        <f t="shared" si="1"/>
+        <v>457599.0379746838</v>
+      </c>
+      <c r="CD12" s="1">
+        <f t="shared" si="2"/>
+        <v>762858.68224602437</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -4362,8 +4705,39 @@
       <c r="BU13" s="11">
         <v>11.8</v>
       </c>
+      <c r="BW13" s="1">
+        <v>2013</v>
+      </c>
+      <c r="BX13" s="18">
+        <f>SUM(BO5:BO300)</f>
+        <v>587180</v>
+      </c>
+      <c r="BY13" s="18">
+        <f>AVERAGE(BP6:BP300)</f>
+        <v>11.190909090909091</v>
+      </c>
+      <c r="BZ13" s="18">
+        <f>AVERAGE(BQ6:BQ300)</f>
+        <v>8.5477272727272737</v>
+      </c>
+      <c r="CA13" s="18">
+        <f>AVERAGE(BR6:BR300)</f>
+        <v>14.289393939393943</v>
+      </c>
+      <c r="CB13" s="24">
+        <f t="shared" si="0"/>
+        <v>5246937.449228269</v>
+      </c>
+      <c r="CC13" s="1">
+        <f t="shared" si="1"/>
+        <v>448493.9033306255</v>
+      </c>
+      <c r="CD13" s="1">
+        <f t="shared" si="2"/>
+        <v>749755.56187381549</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -4584,7 +4958,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="15" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
@@ -4805,7 +5179,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="16" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -5026,7 +5400,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
@@ -5247,7 +5621,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="18" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -5468,7 +5842,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="19" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
@@ -5689,7 +6063,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="20" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -5910,7 +6284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>11</v>
       </c>
@@ -6131,7 +6505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>11</v>
       </c>
@@ -6352,7 +6726,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="23" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
@@ -6573,7 +6947,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="24" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>11</v>
       </c>
@@ -6794,7 +7168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
@@ -7015,7 +7389,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="26" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>11</v>
       </c>
@@ -7236,7 +7610,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="27" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
@@ -7457,7 +7831,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="28" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>11</v>
       </c>
@@ -7678,7 +8052,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="29" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>11</v>
       </c>
@@ -7899,7 +8273,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="30" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>11</v>
       </c>
@@ -8120,7 +8494,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="31" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>11</v>
       </c>
@@ -8341,7 +8715,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="32" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>11</v>
       </c>
@@ -8562,7 +8936,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="33" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>11</v>
       </c>
@@ -8783,7 +9157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>11</v>
       </c>
@@ -9004,7 +9378,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="35" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>11</v>
       </c>
@@ -9225,7 +9599,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="36" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>11</v>
       </c>
@@ -9446,7 +9820,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="37" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
@@ -9667,7 +10041,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="38" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>11</v>
       </c>
@@ -9888,7 +10262,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="39" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>11</v>
       </c>
@@ -10109,7 +10483,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="40" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>11</v>
       </c>
@@ -10330,7 +10704,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="41" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
@@ -10551,7 +10925,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="42" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>11</v>
       </c>
@@ -10772,7 +11146,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="43" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>11</v>
       </c>
@@ -10993,7 +11367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
         <v>11</v>
       </c>
@@ -11214,7 +11588,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="45" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>11</v>
       </c>
@@ -11435,7 +11809,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="46" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>11</v>
       </c>
@@ -11656,7 +12030,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="47" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
@@ -11877,7 +12251,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>11</v>
       </c>
@@ -12098,7 +12472,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="49" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>11</v>
       </c>
@@ -12319,7 +12693,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="50" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>11</v>
       </c>
@@ -12540,7 +12914,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
@@ -12761,7 +13135,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>11</v>
       </c>
@@ -12982,7 +13356,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="53" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>11</v>
       </c>
@@ -13203,7 +13577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>11</v>
       </c>
@@ -13424,7 +13798,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="55" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
@@ -13645,7 +14019,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="56" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>11</v>
       </c>
@@ -13866,7 +14240,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="57" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>11</v>
       </c>
@@ -14087,7 +14461,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="58" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>11</v>
       </c>
@@ -14308,7 +14682,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="59" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>11</v>
       </c>
@@ -14529,7 +14903,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>11</v>
       </c>
@@ -14750,7 +15124,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="61" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>11</v>
       </c>
@@ -14971,7 +15345,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="62" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
         <v>11</v>
       </c>
@@ -15192,7 +15566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>11</v>
       </c>
@@ -15413,7 +15787,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="64" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>11</v>
       </c>
@@ -15634,7 +16008,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="65" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
@@ -15855,7 +16229,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="66" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>11</v>
       </c>
@@ -16076,7 +16450,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="67" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>11</v>
       </c>
@@ -16297,7 +16671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
         <v>11</v>
       </c>
@@ -16518,7 +16892,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="69" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
@@ -16739,7 +17113,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
         <v>11</v>
       </c>
@@ -16960,7 +17334,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="71" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
         <v>11</v>
       </c>
@@ -17181,7 +17555,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="72" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
         <v>11</v>
       </c>
@@ -17402,7 +17776,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="73" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="10" t="s">
         <v>11</v>
       </c>
@@ -17623,7 +17997,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="74" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
         <v>11</v>
       </c>
@@ -17844,7 +18218,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="75" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="10" t="s">
         <v>11</v>
       </c>
@@ -18065,7 +18439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
         <v>11</v>
       </c>
@@ -18286,7 +18660,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="77" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="10" t="s">
         <v>11</v>
       </c>
@@ -18507,7 +18881,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="78" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
         <v>11</v>
       </c>
@@ -18728,7 +19102,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="79" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
@@ -18949,7 +19323,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="80" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
         <v>11</v>
       </c>
@@ -19170,7 +19544,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="81" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="10" t="s">
         <v>11</v>
       </c>
@@ -19391,7 +19765,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="82" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
         <v>11</v>
       </c>
@@ -19612,7 +19986,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="83" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="10" t="s">
         <v>11</v>
       </c>
@@ -19833,7 +20207,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="84" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
         <v>11</v>
       </c>
@@ -20054,7 +20428,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="85" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="10" t="s">
         <v>11</v>
       </c>
@@ -20275,7 +20649,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="86" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
         <v>11</v>
       </c>
@@ -20496,7 +20870,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="87" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="10" t="s">
         <v>11</v>
       </c>
@@ -20717,7 +21091,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="88" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
         <v>11</v>
       </c>
@@ -20938,7 +21312,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="89" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="10" t="s">
         <v>11</v>
       </c>
@@ -21159,7 +21533,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="90" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
         <v>11</v>
       </c>
@@ -21380,7 +21754,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="91" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="10" t="s">
         <v>11</v>
       </c>
@@ -21601,7 +21975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
         <v>11</v>
       </c>
@@ -21822,7 +22196,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="93" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
         <v>11</v>
       </c>
@@ -22043,7 +22417,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="94" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
         <v>11</v>
       </c>
@@ -22264,7 +22638,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="95" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="10" t="s">
         <v>11</v>
       </c>
@@ -22485,7 +22859,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="96" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="10" t="s">
         <v>11</v>
       </c>
@@ -22706,7 +23080,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="97" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="10" t="s">
         <v>11</v>
       </c>
@@ -22927,7 +23301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="10" t="s">
         <v>11</v>
       </c>
@@ -23148,7 +23522,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="99" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="10" t="s">
         <v>11</v>
       </c>
@@ -23369,7 +23743,7 @@
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
         <v>11</v>
       </c>
@@ -23590,7 +23964,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="101" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="10" t="s">
         <v>11</v>
       </c>
@@ -23811,7 +24185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="10" t="s">
         <v>11</v>
       </c>
@@ -24032,7 +24406,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="10" t="s">
         <v>11</v>
       </c>
@@ -24253,7 +24627,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="104" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="10" t="s">
         <v>11</v>
       </c>
@@ -24474,7 +24848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="10" t="s">
         <v>11</v>
       </c>
@@ -24695,7 +25069,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="106" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="10" t="s">
         <v>11</v>
       </c>
@@ -24916,7 +25290,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="107" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="10" t="s">
         <v>11</v>
       </c>
@@ -25137,7 +25511,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="108" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="10" t="s">
         <v>11</v>
       </c>
@@ -25358,7 +25732,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="109" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="10" t="s">
         <v>11</v>
       </c>
@@ -25579,7 +25953,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="110" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A110" s="10" t="s">
         <v>11</v>
       </c>
@@ -25800,7 +26174,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="111" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="10" t="s">
         <v>11</v>
       </c>
@@ -26021,7 +26395,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="112" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A112" s="10" t="s">
         <v>11</v>
       </c>
@@ -26242,7 +26616,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="113" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="10" t="s">
         <v>11</v>
       </c>
@@ -26463,7 +26837,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="114" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="10" t="s">
         <v>11</v>
       </c>
@@ -26684,7 +27058,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="115" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="10" t="s">
         <v>11</v>
       </c>
@@ -26905,7 +27279,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="10" t="s">
         <v>11</v>
       </c>
@@ -27126,7 +27500,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="117" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A117" s="10" t="s">
         <v>11</v>
       </c>
@@ -27347,7 +27721,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="118" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="10" t="s">
         <v>11</v>
       </c>
@@ -27568,7 +27942,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="119" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="10" t="s">
         <v>11</v>
       </c>
@@ -27789,7 +28163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="10" t="s">
         <v>11</v>
       </c>
@@ -28010,7 +28384,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="121" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="10" t="s">
         <v>11</v>
       </c>
@@ -28231,7 +28605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A122" s="10" t="s">
         <v>11</v>
       </c>
@@ -28452,7 +28826,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="123" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A123" s="10" t="s">
         <v>11</v>
       </c>
@@ -28673,7 +29047,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="124" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A124" s="10" t="s">
         <v>11</v>
       </c>
@@ -28894,7 +29268,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="125" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A125" s="10" t="s">
         <v>11</v>
       </c>
@@ -29115,7 +29489,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="126" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A126" s="10" t="s">
         <v>11</v>
       </c>
@@ -29336,7 +29710,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="127" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A127" s="10" t="s">
         <v>11</v>
       </c>
@@ -29557,7 +29931,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A128" s="10" t="s">
         <v>11</v>
       </c>
@@ -29778,7 +30152,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="129" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A129" s="10" t="s">
         <v>11</v>
       </c>
@@ -29999,7 +30373,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="130" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A130" s="10" t="s">
         <v>11</v>
       </c>
@@ -30220,7 +30594,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="131" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="10" t="s">
         <v>11</v>
       </c>
@@ -30441,7 +30815,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="132" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A132" s="10" t="s">
         <v>11</v>
       </c>
@@ -30662,7 +31036,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="133" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A133" s="10" t="s">
         <v>11</v>
       </c>
@@ -30883,7 +31257,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="134" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A134" s="10" t="s">
         <v>11</v>
       </c>
@@ -31104,7 +31478,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="135" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A135" s="10" t="s">
         <v>11</v>
       </c>
@@ -31325,7 +31699,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="136" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A136" s="10" t="s">
         <v>11</v>
       </c>
@@ -31546,7 +31920,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="137" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A137" s="10" t="s">
         <v>11</v>
       </c>
@@ -31767,7 +32141,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="138" spans="1:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:73" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A138" s="12" t="s">
         <v>11</v>
       </c>
